--- a/ClusterAnalysis/Results/9_6/strat descriptions.xlsx
+++ b/ClusterAnalysis/Results/9_6/strat descriptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\RMP\ClusterAnalysis\Results\9_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFBD42E3-7581-48AD-9952-87243AF35E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E202A0EE-F26B-44D1-978A-91AD8C001E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DAA4FB5-5079-4B79-B3DA-B5A43E350E67}"/>
+    <workbookView xWindow="-57710" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{2DAA4FB5-5079-4B79-B3DA-B5A43E350E67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>Best In Metric (Decay Total)</t>
   </si>
@@ -175,6 +175,19 @@
   </si>
   <si>
     <t xml:space="preserve">Macquarie Single Commodity Vol -WTI - Local Variance Swap Intraday Delta Hedge; </t>
+  </si>
+  <si>
+    <t>The index seeks to implement a risk reversal strategy on the S&amp;P 500 index, by selling 1-month OTM put options and buying OTM calls with the same maturity such that the overall structure is net zero premium at inception.
+The index sells 98% 1-month constant maturity puts daily and buys Dynamic Strike 1-month calls with premium equivalent to
+puts.
+Nominal of each new option is 1/21 of the synthetic portfolio value.</t>
+  </si>
+  <si>
+    <t>BNP Paribas Monetise the premium generated by the sale of short-term OTM put options across asset classes: equities, bond futures, commodities, VIX futures, and swap rate market</t>
+  </si>
+  <si>
+    <t>same as BNPITIU1 but 2x levered:
+BNP Paribas Monetise the premium generated by the sale of short-term OTM put options across asset classes: equities, bond futures, commodities, VIX futures, and swap rate market</t>
   </si>
 </sst>
 </file>
@@ -312,9 +325,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -330,9 +340,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,9 +352,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -360,9 +364,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -394,6 +395,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -715,21 +728,21 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.28515625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="29.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="76.42578125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.26953125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.1796875" style="1"/>
+    <col min="6" max="6" width="29.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="76.453125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -737,276 +750,288 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="G2" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="G3" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="14" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
+      <c r="G4" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="32"/>
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="G5" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="19" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
+      <c r="G6" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="33"/>
+      <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="19" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="G7" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="24" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34"/>
+      <c r="B9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="24" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="27" t="s">
+    <row r="10" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="27" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="32" t="s">
+    <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="32" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="32" t="s">
+      <c r="G11" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="32" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="28" t="s">
+      <c r="G12" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="32" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="28" t="s">
+      <c r="G13" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="28" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="28" t="s">
+    <row r="15" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10"/>
+      <c r="B15" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="28" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="28" t="s">
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="28" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="28" t="s">
+    <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="28" t="s">
+    <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="26" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1030,17 +1055,17 @@
       <selection activeCell="A3" sqref="A3:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C1" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1048,7 +1073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1056,7 +1081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -1064,7 +1089,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
@@ -1072,7 +1097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
@@ -1080,7 +1105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
